--- a/Info.xlsx
+++ b/Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\felixfeu.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0543EDA5-C328-4F67-8A60-46A1D0C3D3C5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{45B2E6AD-BE5C-4059-BDAD-AF8B2FA2CAA1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11676" windowHeight="6300" xr2:uid="{79340B97-BE9E-4C7E-8A6B-B89A9D2FB5A6}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="30">
   <si>
     <t>Style</t>
   </si>
   <si>
-    <t>Ingredients</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -45,12 +42,6 @@
     <t>Alcohol %</t>
   </si>
   <si>
-    <t>Water, barley malt, hops</t>
-  </si>
-  <si>
-    <t>Water, wheat malt, barley malt, hops, yeast</t>
-  </si>
-  <si>
     <t>Edelstoff</t>
   </si>
   <si>
@@ -85,14 +76,60 @@
   </si>
   <si>
     <t>Dark</t>
+  </si>
+  <si>
+    <t>Augustiner</t>
+  </si>
+  <si>
+    <t>Schlappeseppel</t>
+  </si>
+  <si>
+    <t>Winterbock</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>Kellerbier</t>
+  </si>
+  <si>
+    <t>Landbier</t>
+  </si>
+  <si>
+    <t>Radler</t>
+  </si>
+  <si>
+    <t>Mixed beer</t>
+  </si>
+  <si>
+    <t>standard</t>
+  </si>
+  <si>
+    <t>Specialität</t>
+  </si>
+  <si>
+    <t>Specialty</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>check</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -119,9 +156,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -438,129 +478,422 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908E1EB9-0DCA-462E-93A1-D33546FACD2C}">
-  <dimension ref="B2:J5"/>
+  <dimension ref="B1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="10" width="15.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="1" t="s">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="E5" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="H5" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="I5" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="J5" s="1">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" t="str">
+        <f>"Style: "&amp;C4</f>
+        <v>Style: Lager</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" ref="D7:J7" si="0">"Style: "&amp;D4</f>
+        <v>Style: Export</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>Style: Bock</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>Style: Wheat beer</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>Style: Pilsner</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>Style: Lager</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>Style: Bock</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>Style: Dark</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C8" t="str">
+        <f>"Alc.: "&amp;C5&amp;"% vol."</f>
+        <v>Alc.: 5.2% vol.</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" ref="D8:J8" si="1">"Alc.: "&amp;D5&amp;"% vol."</f>
+        <v>Alc.: 5.6% vol.</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>Alc.: 7.5% vol.</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v>Alc.: 5.4% vol.</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>Alc.: 5.6% vol.</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="1"/>
+        <v>Alc.: 6.3% vol.</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="1"/>
+        <v>Alc.: 7.5% vol.</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="1"/>
+        <v>Alc.: 5.6% vol.</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="E14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="J15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="D16" s="1">
         <v>5.2</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E16" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="F16" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H16" s="1">
         <v>5.6</v>
       </c>
-      <c r="E4" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="F4" s="1">
-        <v>5.4</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="I16" s="1">
         <v>5.6</v>
       </c>
-      <c r="H4" s="1">
-        <v>6.3</v>
-      </c>
-      <c r="I4" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="J4" s="1">
+      <c r="J16" s="1">
         <v>5.6</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>6</v>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C18" t="str">
+        <f>"Alc.: "&amp;C16&amp;"% vol."</f>
+        <v>Alc.: 6.8% vol.</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" ref="D18:J18" si="2">"Alc.: "&amp;D16&amp;"% vol."</f>
+        <v>Alc.: 5.2% vol.</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="2"/>
+        <v>Alc.: 5.5% vol.</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="2"/>
+        <v>Alc.: 5.3% vol.</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="2"/>
+        <v>Alc.: 2.5% vol.</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="2"/>
+        <v>Alc.: 5.6% vol.</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="2"/>
+        <v>Alc.: 5.6% vol.</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="2"/>
+        <v>Alc.: 5.6% vol.</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C19" t="str">
+        <f>"Style: "&amp;C15</f>
+        <v>Style: Bock</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" ref="D19:J19" si="3">"Style: "&amp;D15</f>
+        <v>Style: Dark</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="3"/>
+        <v>Style: Specialty</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="3"/>
+        <v>Style: Specialty</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="3"/>
+        <v>Style: Mixed beer</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="3"/>
+        <v>Style: Export</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="3"/>
+        <v>Style: Wheat beer</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="3"/>
+        <v>Style: Specialty</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Info.xlsx
+++ b/Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\felixfeu.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{45B2E6AD-BE5C-4059-BDAD-AF8B2FA2CAA1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{69B4637B-5E88-45B0-97B1-12E71472D614}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11676" windowHeight="6300" xr2:uid="{79340B97-BE9E-4C7E-8A6B-B89A9D2FB5A6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="30">
   <si>
     <t>Style</t>
   </si>
@@ -481,7 +481,7 @@
   <dimension ref="B1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C20" sqref="C20:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -686,6 +686,9 @@
       <c r="D9" t="s">
         <v>29</v>
       </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
       <c r="F9" t="s">
         <v>29</v>
       </c>
@@ -693,6 +696,12 @@
         <v>29</v>
       </c>
       <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -886,6 +895,21 @@
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" t="s">
+        <v>29</v>
+      </c>
       <c r="H20" t="s">
         <v>29</v>
       </c>
